--- a/trend_results/Rivers/RangitikeiatOnepuhi_b6bbf4af3b.xlsx
+++ b/trend_results/Rivers/RangitikeiatOnepuhi_b6bbf4af3b.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.143573701287041</v>
+        <v>0.8564262987129591</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -1289,7 +1289,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.975981399769812</v>
+        <v>0.024018600230188</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.0859753607952255</v>
+        <v>0.9140246392047749</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.364532058767005</v>
+        <v>0.635467941232995</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -3086,11 +3086,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -3101,31 +3101,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.021631363903455</v>
+        <v>7.072401933133179e-08</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8</v>
+        <v>0.732824427480916</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.367</v>
+        <v>2.7</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0190790020290767</v>
+        <v>0.392933985330073</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0449763893965869</v>
+        <v>0.220758785482619</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.0061132318147457</v>
+        <v>0.688797485737685</v>
       </c>
       <c r="N30" t="n">
-        <v>-5.19863815506178</v>
+        <v>14.5531105677805</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3163,7 +3163,11 @@
           <t>Rang_3a</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3173,14 +3177,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3188,31 +3192,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.59675202974633</v>
+        <v>0.244247344343613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.0245901639344262</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.581967213114754</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>104.44</v>
+        <v>0.4675</v>
       </c>
       <c r="K31" t="n">
-        <v>1.33720886800449</v>
+        <v>-0.0073172283725059</v>
       </c>
       <c r="L31" t="n">
-        <v>-14.383636964712</v>
+        <v>-0.0228614579088816</v>
       </c>
       <c r="M31" t="n">
-        <v>6.36688381053735</v>
+        <v>0.0100069827520911</v>
       </c>
       <c r="N31" t="n">
-        <v>1.28036084642329</v>
+        <v>-1.56518253957346</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3221,7 +3225,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3250,7 +3254,11 @@
           <t>Rang_3a</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3260,14 +3268,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3275,31 +3283,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.5</v>
+        <v>0.061345922657723</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.804597701149425</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>5.58</v>
+        <v>10.235</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0360715089533043</v>
+        <v>-0.0173320429570429</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.925407512007579</v>
+        <v>-0.0360730581951869</v>
       </c>
       <c r="M32" t="n">
-        <v>0.516558043934576</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.646442812783231</v>
+        <v>-0.169340917997488</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3308,7 +3316,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3337,7 +3345,11 @@
           <t>Rang_3a</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3347,11 +3359,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
         <v>0</v>
@@ -3362,31 +3374,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.004603417276542</v>
+        <v>0.0020361074204604</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.129943502824859</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9</v>
+        <v>0.129943502824859</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0.4075</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0110879464285714</v>
+        <v>0.0002472918077183</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0206874449485378</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0068569026605536</v>
+        <v>0.0003971597275636</v>
       </c>
       <c r="N33" t="n">
-        <v>-2.72096844872919</v>
+        <v>2.74768675242609</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3424,7 +3436,11 @@
           <t>Rang_3a</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3434,14 +3450,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3449,31 +3465,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.237137175383665</v>
+        <v>0.775814049427763</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.0171428571428571</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0.662857142857143</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>104.22</v>
+        <v>100</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.898610919143055</v>
+        <v>-1.12615621788284</v>
       </c>
       <c r="L34" t="n">
-        <v>-3.12612117960862</v>
+        <v>-4.32985590954867</v>
       </c>
       <c r="M34" t="n">
-        <v>0.70834459053072</v>
+        <v>1.25376663202963</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.862225023165472</v>
+        <v>-1.12615621788284</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3482,7 +3498,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3511,7 +3527,11 @@
           <t>Rang_3a</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3521,46 +3541,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.295752518497458</v>
+        <v>0.9776297207506059</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.895953757225434</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.196531791907514</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J35" t="n">
-        <v>5.605</v>
+        <v>0.005</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0548803744798889</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.243224343265505</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0.186066597346787</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.979132461728616</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3569,7 +3589,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3598,7 +3618,1253 @@
           <t>Rang_3a</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.672295943921199</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.493589743589744</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.0769230769230769</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0181166036523419</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.257861635220126</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.610062893081761</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0011234620642515</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.89252919444031</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.5284090909090911</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7.835</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0066034657106085</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.0019249501990708</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.0151976421636616</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.0842816300013853</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Likely increasing</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.121495304327829</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0451977401129944</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.598870056497175</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0003349387355069</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0010009839160508</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.434985370788204</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.7684771093211979</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.525423728813559</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.0008395414084022</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.003761817406397</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0014263205372081</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.437261150209531</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.62114529704594</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0056497175141242</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.435028248587571</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.0004013720238793</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0002496458753704</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>15</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.932263153640432</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0056497175141242</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.937853107344633</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.0601344875164629</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.177704972160334</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0011935287264595</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-1.12822678267285</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.021631363903455</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.0190790020290767</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.0449763893965869</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.0061132318147457</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-5.19863815506178</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>104.44</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1.33720886800449</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-14.383636964712</v>
+      </c>
+      <c r="M44" t="n">
+        <v>6.36688381053735</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.28036084642329</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.0360715089533043</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.925407512007579</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.516558043934576</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.646442812783231</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.004603417276542</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.4075</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.0110879464285714</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.0206874449485378</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-0.0068569026605536</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-2.72096844872919</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.237137175383665</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>104.22</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.898610919143055</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-3.12612117960862</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.70834459053072</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.862225023165472</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.295752518497458</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5.605</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.0548803744798889</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.243224343265505</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.186066597346787</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.979132461728616</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>15</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.102737150379031</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.857142857142857</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>105.22</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.712822014051522</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-2.0596533609316</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.236546355889378</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.677458671404222</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/RangitikeiatOnepuhi_b6bbf4af3b.xlsx
+++ b/trend_results/Rivers/RangitikeiatOnepuhi_b6bbf4af3b.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W49"/>
+  <dimension ref="A1:W56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.104485307580627</v>
+        <v>0.9233323238091971</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.813953488372093</v>
+        <v>0.897435897435897</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6632869249394669</v>
+        <v>-2.15236607142857</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.34430078480594</v>
+        <v>-6.8656015037594</v>
       </c>
       <c r="M2" t="n">
-        <v>2.23655620165139</v>
+        <v>0.167325322175098</v>
       </c>
       <c r="N2" t="n">
-        <v>9.47552749913525</v>
+        <v>-28.6982142857143</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.990407614270156</v>
+        <v>0.276534885234562</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.891891891891892</v>
+        <v>0.794871794871795</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0994131940750984</v>
+        <v>-0.0152717770034843</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0319528451278425</v>
+        <v>-0.0857438021698939</v>
       </c>
       <c r="M3" t="n">
-        <v>0.217068000866546</v>
+        <v>0.0314662680127483</v>
       </c>
       <c r="N3" t="n">
-        <v>26.8684308311077</v>
+        <v>-4.62781121317707</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.8564262987129591</v>
+        <v>0.9909973244872921</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8947368421052631</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.19</v>
+        <v>10.115</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0526730494810407</v>
+        <v>0.09046085930391271</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0095229301369668</v>
+        <v>0.0220742106604674</v>
       </c>
       <c r="M4" t="n">
-        <v>0.108785016630749</v>
+        <v>0.146424992430711</v>
       </c>
       <c r="N4" t="n">
-        <v>0.516909219637298</v>
+        <v>0.894323868550793</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.944547474196055</v>
+        <v>0.231646693351403</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -858,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0105</v>
+        <v>0.011</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0007905844155844</v>
+        <v>0.0002869206598586</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0016831797235023</v>
+        <v>-0.0003838595126507</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>0.0013595634919184</v>
       </c>
       <c r="N5" t="n">
-        <v>-7.52937538651824</v>
+        <v>2.6083696350782</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,31 +937,31 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.690306346668944</v>
+        <v>0.302645906451533</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0172413793103448</v>
+        <v>0.0344827586206897</v>
       </c>
       <c r="H6" t="n">
-        <v>0.706896551724138</v>
+        <v>0.724137931034483</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>84.5</v>
+        <v>90.5</v>
       </c>
       <c r="K6" t="n">
-        <v>-4.86410411622276</v>
+        <v>4.34821428571429</v>
       </c>
       <c r="L6" t="n">
-        <v>-17.5009593620971</v>
+        <v>-8.38689849654248</v>
       </c>
       <c r="M6" t="n">
-        <v>10.2792898705317</v>
+        <v>21.8222816137384</v>
       </c>
       <c r="N6" t="n">
-        <v>-5.75633623221628</v>
+        <v>4.80465666929755</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1024,18 +1024,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>&lt; 3 unique values</t>
+          <t>&lt; 5 Non-censored values</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>0.962962962962963</v>
+        <v>0.927272727272727</v>
       </c>
       <c r="H7" t="n">
-        <v>0.12962962962963</v>
+        <v>0.109090909090909</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.862235155273095</v>
+        <v>0.999068741143306</v>
       </c>
       <c r="G8" t="n">
         <v>0.482758620689655</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>-0.0004817129364385</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1194,35 +1194,35 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.677630818155552</v>
+        <v>0.61805470326473</v>
       </c>
       <c r="G9" t="n">
-        <v>0.189655172413793</v>
+        <v>0.155172413793103</v>
       </c>
       <c r="H9" t="n">
-        <v>0.758620689655172</v>
+        <v>0.844827586206897</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.101</v>
+        <v>0.0975</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0.0011181122448979</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.008466467788022101</v>
+        <v>-0.0124173790706365</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0040559450948889</v>
+        <v>0.010025716832558</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>-1.14678178963893</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.024018600230188</v>
+        <v>0.40742894585203</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.736842105263158</v>
+        <v>0.771929824561403</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.86</v>
+        <v>7.84</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0419111751152078</v>
+        <v>-0.0050602708533076</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0808734613764308</v>
+        <v>-0.0417962431632511</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.005439533890317</v>
+        <v>0.04788836765209</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.5332210574453921</v>
+        <v>-0.0645442710881079</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1372,35 +1372,35 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.723956366349257</v>
+        <v>0.722866081837841</v>
       </c>
       <c r="G11" t="n">
         <v>0.0172413793103448</v>
       </c>
       <c r="H11" t="n">
-        <v>0.793103448275862</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0.111</v>
+        <v>0.1055</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0019879354136429</v>
+        <v>-0.0035755193934459</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0105143100841909</v>
+        <v>-0.0125295129415308</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0050171703296703</v>
+        <v>0.0090396693711062</v>
       </c>
       <c r="N11" t="n">
-        <v>-1.79093280508375</v>
+        <v>-3.3891179084796</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -1463,35 +1463,35 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.942599067709434</v>
+        <v>0.5</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0517241379310345</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.637931034482759</v>
+        <v>0.517241379310345</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>15.5</v>
+        <v>0.2</v>
       </c>
       <c r="K12" t="n">
-        <v>-1.24403950953678</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>-3.30843576931582</v>
+        <v>-0.01330779188802</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.0100344324567745</v>
       </c>
       <c r="N12" t="n">
-        <v>-8.026061351850229</v>
+        <v>0</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1558,31 +1558,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.884131455804454</v>
+        <v>0.117166593603105</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5344827586206899</v>
+        <v>0.689655172413793</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.225</v>
+        <v>0.0255</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.0116641221040106</v>
+        <v>0.002879210606425</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0301252369569994</v>
+        <v>-0.0005660947201373</v>
       </c>
       <c r="M13" t="n">
-        <v>8.2907577044577e-06</v>
+        <v>0.004547874830724</v>
       </c>
       <c r="N13" t="n">
-        <v>-5.18405426844918</v>
+        <v>11.2910219859805</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1649,31 +1649,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.722866081837841</v>
+        <v>0.671309786444959</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0172413793103448</v>
       </c>
       <c r="H14" t="n">
-        <v>0.655172413793103</v>
+        <v>0.9655172413793101</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0.02</v>
+        <v>4.95</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0010006924428031</v>
+        <v>-0.361236263736264</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.004074030512015</v>
+        <v>-1.39321454530267</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0013496628282711</v>
+        <v>0.305850598584844</v>
       </c>
       <c r="N14" t="n">
-        <v>-5.00346221401549</v>
+        <v>-7.29770229770231</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1725,14 +1725,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1740,31 +1740,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.998446180432135</v>
+        <v>0.258113964162581</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0172413793103448</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9655172413793101</v>
+        <v>0.732558139534884</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3.795</v>
+        <v>5.3</v>
       </c>
       <c r="K15" t="n">
-        <v>-1.21881542617047</v>
+        <v>0.115952380952381</v>
       </c>
       <c r="L15" t="n">
-        <v>-2.64963163165103</v>
+        <v>-0.218280543141455</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.497710939417493</v>
+        <v>0.445991634038526</v>
       </c>
       <c r="N15" t="n">
-        <v>-32.1163485156909</v>
+        <v>2.18778077268643</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1816,14 +1816,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0601426223613606</v>
+        <v>0.071654529690851</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.731182795698925</v>
+        <v>0.705128205128205</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>5.5</v>
+        <v>0.385</v>
       </c>
       <c r="K16" t="n">
-        <v>0.245802733972377</v>
+        <v>-0.0374487354750512</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-0.104187340483573</v>
       </c>
       <c r="M16" t="n">
-        <v>0.639861103713852</v>
+        <v>0.0010127536259444</v>
       </c>
       <c r="N16" t="n">
-        <v>4.46914061767958</v>
+        <v>-9.72694427923409</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1922,31 +1922,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.080063567970397</v>
+        <v>0.973141381180883</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0256410256410256</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7307692307692309</v>
+        <v>0.837606837606838</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.495</v>
+        <v>10.09</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0410600606290261</v>
+        <v>0.0223622448979592</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.100343406593407</v>
+        <v>0.0014287868262713</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0027577079175117</v>
+        <v>0.0527309697286824</v>
       </c>
       <c r="N17" t="n">
-        <v>-8.294961743237611</v>
+        <v>0.221627798790477</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1998,46 +1998,46 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0.124169963630101</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0847457627118644</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.186440677966102</v>
+      </c>
+      <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0.9140246392047749</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.837606837606838</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
       <c r="J18" t="n">
-        <v>10.09</v>
+        <v>0.0105</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0132939035486809</v>
+        <v>0.0001571643717728</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0033278727173266</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0426279168299807</v>
+        <v>0.0004517214466501</v>
       </c>
       <c r="N18" t="n">
-        <v>0.131753256181179</v>
+        <v>1.49680354069339</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2089,14 +2089,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2104,31 +2104,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.0590533958599966</v>
+        <v>0.344214719670169</v>
       </c>
       <c r="G19" t="n">
-        <v>0.09322033898305079</v>
+        <v>0.0256410256410256</v>
       </c>
       <c r="H19" t="n">
-        <v>0.177966101694915</v>
+        <v>0.58974358974359</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>0.01</v>
+        <v>84</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0002377155873739</v>
+        <v>0.917892272956928</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-3.53404001274137</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0005324344023323</v>
+        <v>5.23695764530427</v>
       </c>
       <c r="N19" t="n">
-        <v>2.37715587373902</v>
+        <v>1.0927288963773</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2180,46 +2180,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.584642071103157</v>
+        <v>0.517287212064233</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0170940170940171</v>
+        <v>0.93859649122807</v>
       </c>
       <c r="H20" t="n">
-        <v>0.623931623931624</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J20" t="n">
-        <v>91</v>
+        <v>0.005</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.755275656255173</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-7.79181210729677</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>2.50589721918444</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.829973248632059</v>
+        <v>0</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2282,23 +2282,23 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.642606553346512</v>
+        <v>0.874035395952979</v>
       </c>
       <c r="G21" t="n">
-        <v>0.956140350877193</v>
+        <v>0.474576271186441</v>
       </c>
       <c r="H21" t="n">
-        <v>0.140350877192982</v>
+        <v>0.0677966101694915</v>
       </c>
       <c r="I21" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2362,14 +2362,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2377,31 +2377,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.951220658865562</v>
+        <v>0.0011801070610284</v>
       </c>
       <c r="G22" t="n">
-        <v>0.406779661016949</v>
+        <v>0.220338983050847</v>
       </c>
       <c r="H22" t="n">
-        <v>0.076271186440678</v>
+        <v>0.686440677966102</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.002</v>
+        <v>0.083</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.0029223883572567</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0060144807523597</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.52094982802022</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2453,46 +2453,46 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>4.89998927736157e-05</v>
+        <v>0.178446275617984</v>
       </c>
       <c r="G23" t="n">
-        <v>0.271186440677966</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.644067796610169</v>
+        <v>0.606837606837607</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.06765</v>
+        <v>7.85</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0019387067277446</v>
+        <v>-0.007966194111232399</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-0.0249677354771208</v>
       </c>
       <c r="M23" t="n">
-        <v>0.005124363830008</v>
+        <v>0.0063849023641898</v>
       </c>
       <c r="N23" t="n">
-        <v>2.86578969363588</v>
+        <v>-0.101480179760923</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2530,11 +2530,7 @@
           <t>Rang_3a</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2544,46 +2540,46 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.635467941232995</v>
+        <v>0.0021225177867396</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.0677966101694915</v>
       </c>
       <c r="H24" t="n">
-        <v>0.5982905982905981</v>
+        <v>0.720338983050847</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>7.84</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0029606352400114</v>
+        <v>0.0034765260593722</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0123829798166483</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0166805386575185</v>
+        <v>0.0068164313661941</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0377632045919826</v>
+        <v>3.97317263928261</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2592,7 +2588,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2621,7 +2617,11 @@
           <t>Rang_3a</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2646,31 +2646,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.00010681162071</v>
+        <v>0.212846058893761</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0677966101694915</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.635593220338983</v>
+        <v>0.542372881355932</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.074</v>
+        <v>0.205</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0030054934083488</v>
+        <v>0.0014673505005268</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0010042243096964</v>
+        <v>-0.0019856942844843</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0068652632494702</v>
+        <v>0.0050171703296703</v>
       </c>
       <c r="N25" t="n">
-        <v>4.06147757884978</v>
+        <v>0.715780731964328</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -2733,35 +2733,35 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.55290903585661</v>
+        <v>0.228754264897735</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0593220338983051</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5</v>
+        <v>0.533898305084746</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>15</v>
+        <v>0.0255</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.0004143503835166</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.773878497586041</v>
+        <v>-0.0004981768800961</v>
       </c>
       <c r="M26" t="n">
-        <v>0.501595556907533</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1.6249034647712</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2801,7 +2801,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -2828,31 +2828,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.19070039117898</v>
+        <v>0.778265609378625</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.008474576271186401</v>
       </c>
       <c r="H27" t="n">
-        <v>0.593220338983051</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>0.185</v>
+        <v>5.695</v>
       </c>
       <c r="K27" t="n">
-        <v>0.0016885989130841</v>
+        <v>-0.0900205845176076</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0013999986137203</v>
+        <v>-0.404431082930402</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0065506537088733</v>
+        <v>0.0889630530559032</v>
       </c>
       <c r="N27" t="n">
-        <v>0.912756169234662</v>
+        <v>-1.58069507493604</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2904,14 +2904,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2919,31 +2919,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.228489966748765</v>
+        <v>2.66024431006676e-07</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.491525423728814</v>
+        <v>0.727941176470588</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.02</v>
+        <v>2.775</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0003087381971688</v>
+        <v>0.312126141402457</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.000334478021978</v>
+        <v>0.202558536603155</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0008758992805755</v>
+        <v>0.550784580823734</v>
       </c>
       <c r="N28" t="n">
-        <v>1.54369098584406</v>
+        <v>11.2477888793678</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2952,7 +2952,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -2995,11 +2995,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
@@ -3010,31 +3010,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.835902338294447</v>
+        <v>0.078784085497383</v>
       </c>
       <c r="G29" t="n">
-        <v>0.008474576271186401</v>
+        <v>0.024390243902439</v>
       </c>
       <c r="H29" t="n">
-        <v>0.966101694915254</v>
+        <v>0.585365853658537</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>4.61</v>
+        <v>0.43</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.07791802033662699</v>
+        <v>-0.0133505939689309</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.315971515572042</v>
+        <v>-0.0279277990774779</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0301264820648436</v>
+        <v>0.00186834820822</v>
       </c>
       <c r="N29" t="n">
-        <v>-1.69019566890731</v>
+        <v>-3.1047892951002</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3086,14 +3086,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3101,31 +3101,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>7.072401933133179e-08</v>
+        <v>0.333049473027253</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.732824427480916</v>
+        <v>0.805714285714286</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.7</v>
+        <v>10.14</v>
       </c>
       <c r="K30" t="n">
-        <v>0.392933985330073</v>
+        <v>-0.0050164813472025</v>
       </c>
       <c r="L30" t="n">
-        <v>0.220758785482619</v>
+        <v>-0.0200988553252163</v>
       </c>
       <c r="M30" t="n">
-        <v>0.688797485737685</v>
+        <v>0.0100187679662323</v>
       </c>
       <c r="N30" t="n">
-        <v>14.5531105677805</v>
+        <v>-0.0494722026351335</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3177,46 +3177,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>0.000553887153374</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.123595505617978</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.129213483146067</v>
+      </c>
+      <c r="I31" t="n">
         <v>1</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>0.244247344343613</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.0245901639344262</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.581967213114754</v>
-      </c>
-      <c r="I31" t="n">
-        <v>2</v>
-      </c>
       <c r="J31" t="n">
-        <v>0.4675</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0073172283725059</v>
+        <v>0.0002866954474097</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0228614579088816</v>
+        <v>0.0001185876623376</v>
       </c>
       <c r="M31" t="n">
-        <v>0.0100069827520911</v>
+        <v>0.0004419697677264</v>
       </c>
       <c r="N31" t="n">
-        <v>-1.56518253957346</v>
+        <v>3.18550497121925</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3283,31 +3283,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.061345922657723</v>
+        <v>0.914845279071562</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.0227272727272727</v>
       </c>
       <c r="H32" t="n">
-        <v>0.804597701149425</v>
+        <v>0.630681818181818</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>10.235</v>
+        <v>109</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0173320429570429</v>
+        <v>-2.39901477832512</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0360730581951869</v>
+        <v>-5.69050767277675</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.381577322992356</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.169340917997488</v>
+        <v>-2.2009309892891</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3347,7 +3347,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3370,35 +3370,35 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.0020361074204604</v>
+        <v>0.983485602537514</v>
       </c>
       <c r="G33" t="n">
-        <v>0.129943502824859</v>
+        <v>0.885057471264368</v>
       </c>
       <c r="H33" t="n">
-        <v>0.129943502824859</v>
+        <v>0.183908045977011</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J33" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.005</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0002472918077183</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0003971597275636</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>2.74768675242609</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3461,35 +3461,35 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.775814049427763</v>
+        <v>0.890773710027854</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0171428571428571</v>
+        <v>0.505952380952381</v>
       </c>
       <c r="H34" t="n">
-        <v>0.662857142857143</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>100</v>
+        <v>0.002</v>
       </c>
       <c r="K34" t="n">
-        <v>-1.12615621788284</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-4.32985590954867</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.25376663202963</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-1.12615621788284</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3541,46 +3541,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.9776297207506059</v>
+        <v>0.0016548280125593</v>
       </c>
       <c r="G35" t="n">
-        <v>0.895953757225434</v>
+        <v>0.244047619047619</v>
       </c>
       <c r="H35" t="n">
-        <v>0.196531791907514</v>
+        <v>0.619047619047619</v>
       </c>
       <c r="I35" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>0.005</v>
+        <v>0.07315000000000001</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.0007890021295597</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.0022712244190674</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1.07860851614455</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3589,7 +3589,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3632,46 +3632,46 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.672295943921199</v>
+        <v>0.946610392641081</v>
       </c>
       <c r="G36" t="n">
-        <v>0.493589743589744</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.508474576271186</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.002</v>
+        <v>7.83</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.0081559371177267</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.0160403718238668</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>0.10416267072448</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3709,11 +3709,7 @@
           <t>Rang_3a</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3723,7 +3719,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3738,31 +3734,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.0181166036523419</v>
+        <v>0.0782926757655405</v>
       </c>
       <c r="G37" t="n">
-        <v>0.257861635220126</v>
+        <v>0.0449438202247191</v>
       </c>
       <c r="H37" t="n">
-        <v>0.610062893081761</v>
+        <v>0.7247191011235951</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0.078</v>
+        <v>0.0835</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>0.0005702162991118</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0011234620642515</v>
+        <v>0.0016604411501494</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>0.682893771391434</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3771,7 +3767,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3802,7 +3798,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3814,14 +3810,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3829,31 +3825,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.89252919444031</v>
+        <v>0.820445767442389</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5284090909090911</v>
+        <v>0.528089887640449</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>7.835</v>
+        <v>0.2</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0066034657106085</v>
+        <v>-0.0012909643954498</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0019249501990708</v>
+        <v>-0.0041490829474443</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0151976421636616</v>
+        <v>0.0008719632234806</v>
       </c>
       <c r="N38" t="n">
-        <v>0.0842816300013853</v>
+        <v>-0.645482197724926</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3862,7 +3858,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3891,7 +3887,11 @@
           <t>Rang_3a</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3912,35 +3912,35 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.121495304327829</v>
+        <v>0.476780064918361</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0451977401129944</v>
+        <v>0.0056179775280898</v>
       </c>
       <c r="H39" t="n">
-        <v>0.598870056497175</v>
+        <v>0.460674157303371</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>0.077</v>
+        <v>0.0255</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0003349387355069</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>-0.0003998357963875</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0010009839160508</v>
+        <v>0.000376607882392</v>
       </c>
       <c r="N39" t="n">
-        <v>0.434985370788204</v>
+        <v>0</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4007,31 +4007,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.7684771093211979</v>
+        <v>0.918273262049921</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.0056179775280898</v>
       </c>
       <c r="H40" t="n">
-        <v>0.525423728813559</v>
+        <v>0.938202247191011</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>0.192</v>
+        <v>6.88</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0008395414084022</v>
+        <v>-0.06516624876146949</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.003761817406397</v>
+        <v>-0.215027069566836</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0014263205372081</v>
+        <v>0.0099489930630595</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.437261150209531</v>
+        <v>-0.9471838482771719</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4083,46 +4083,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D41" t="b">
         <v>1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.62114529704594</v>
+        <v>0.09359574863679999</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0056497175141242</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="H41" t="n">
-        <v>0.435028248587571</v>
+        <v>0.562091503267974</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>0.02</v>
+        <v>0.45</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>-0.0083485714285714</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0004013720238793</v>
+        <v>-0.0200273499320689</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0002496458753704</v>
+        <v>0.0024578876646202</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>-1.8552380952381</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4162,7 +4162,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -4174,11 +4174,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D42" t="b">
         <v>1</v>
@@ -4189,31 +4189,31 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.932263153640432</v>
+        <v>0.0422374479534813</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0056497175141242</v>
+        <v>0.123222748815166</v>
       </c>
       <c r="H42" t="n">
-        <v>0.937853107344633</v>
+        <v>0.123222748815166</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>5.33</v>
+        <v>0.01</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0601344875164629</v>
+        <v>0.0001107489387507</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.177704972160334</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0011935287264595</v>
+        <v>0.0002503623968566</v>
       </c>
       <c r="N42" t="n">
-        <v>-1.12822678267285</v>
+        <v>1.10748938750758</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4222,7 +4222,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4265,14 +4265,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -4280,31 +4280,31 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.021631363903455</v>
+        <v>0.854215996086076</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.0287081339712919</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8</v>
+        <v>0.617224880382775</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>0.367</v>
+        <v>110</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.0190790020290767</v>
+        <v>-1.23866838109484</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.0449763893965869</v>
+        <v>-4.32091107716786</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.0061132318147457</v>
+        <v>0.715427737010372</v>
       </c>
       <c r="N43" t="n">
-        <v>-5.19863815506178</v>
+        <v>-1.12606216463168</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4313,7 +4313,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4342,7 +4342,11 @@
           <t>Rang_3a</t>
         </is>
       </c>
-      <c r="W43" t="inlineStr"/>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4352,46 +4356,46 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.59675202974633</v>
+        <v>0.980582563341832</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.878640776699029</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0.218446601941748</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J44" t="n">
-        <v>104.44</v>
+        <v>0.005</v>
       </c>
       <c r="K44" t="n">
-        <v>1.33720886800449</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>-14.383636964712</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>6.36688381053735</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1.28036084642329</v>
+        <v>0</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4400,7 +4404,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4429,7 +4433,11 @@
           <t>Rang_3a</t>
         </is>
       </c>
-      <c r="W44" t="inlineStr"/>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4439,46 +4447,46 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.5</v>
+        <v>0.0070840532615497</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.259067357512953</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0.575129533678757</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>5.58</v>
+        <v>0.078</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.0360715089533043</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.925407512007579</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.516558043934576</v>
+        <v>0.0013395700968373</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.646442812783231</v>
+        <v>0</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4487,7 +4495,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4516,7 +4524,11 @@
           <t>Rang_3a</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr"/>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4526,14 +4538,14 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -4541,31 +4553,31 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.004603417276542</v>
+        <v>0.111315296643242</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.0663507109004739</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9</v>
+        <v>0.6729857819905209</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>0.4075</v>
+        <v>0.081</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.0110879464285714</v>
+        <v>0.0002924673987645</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.0206874449485378</v>
+        <v>-0.000181142668269</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.0068569026605536</v>
+        <v>0.0010673653917022</v>
       </c>
       <c r="N46" t="n">
-        <v>-2.72096844872919</v>
+        <v>0.361070862672327</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4574,7 +4586,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4603,7 +4615,11 @@
           <t>Rang_3a</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr"/>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4613,14 +4629,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -4628,31 +4644,31 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.237137175383665</v>
+        <v>0.628537408041129</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>0.004739336492891</v>
       </c>
       <c r="H47" t="n">
+        <v>0.933649289099526</v>
+      </c>
+      <c r="I47" t="n">
         <v>1</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
       <c r="J47" t="n">
-        <v>104.22</v>
+        <v>5.73</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.898610919143055</v>
+        <v>-0.008463766589424901</v>
       </c>
       <c r="L47" t="n">
-        <v>-3.12612117960862</v>
+        <v>-0.0639646604570618</v>
       </c>
       <c r="M47" t="n">
-        <v>0.70834459053072</v>
+        <v>0.0540993199103263</v>
       </c>
       <c r="N47" t="n">
-        <v>-0.862225023165472</v>
+        <v>-0.147709713602529</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4661,7 +4677,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -4690,7 +4706,11 @@
           <t>Rang_3a</t>
         </is>
       </c>
-      <c r="W47" t="inlineStr"/>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4700,11 +4720,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -4715,31 +4735,31 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.295752518497458</v>
+        <v>0.021631363903455</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>5.605</v>
+        <v>0.36</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.0548803744798889</v>
+        <v>-0.0090463704745597</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.243224343265505</v>
+        <v>-0.0186390782332273</v>
       </c>
       <c r="M48" t="n">
-        <v>0.186066597346787</v>
+        <v>-0.0058362438566444</v>
       </c>
       <c r="N48" t="n">
-        <v>-0.979132461728616</v>
+        <v>-2.51288068737769</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4748,7 +4768,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -4791,7 +4811,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -4802,31 +4822,31 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.102737150379031</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.857142857142857</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>105.22</v>
+        <v>98</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.712822014051522</v>
+        <v>-2.31489640097742</v>
       </c>
       <c r="L49" t="n">
-        <v>-2.0596533609316</v>
+        <v>-11.3255833811436</v>
       </c>
       <c r="M49" t="n">
-        <v>0.236546355889378</v>
+        <v>6.36688381053735</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.677458671404222</v>
+        <v>-2.36213918467083</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4835,7 +4855,7 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q49" t="n">
@@ -4865,6 +4885,615 @@
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>5</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.143214701876513</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.971816857499072</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.516558043934576</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-2.75943548895016</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>10</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.00152087215995</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.3975</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.011305906506633</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-0.0199231206644303</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.0069512045792551</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-2.84425320921585</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>10</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.237137175383665</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-1.01317614424411</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-3.54812707395723</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.70834459053072</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.988464530969859</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>10</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.360257393568128</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>5.385</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-0.049515993907083</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.246876034452686</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.122311841671288</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.919517064198384</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>15</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0036099404567829</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.928571428571429</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.4075</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.0118547147249744</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.0167151098324828</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-0.0068728379267805</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-2.90913244784647</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Exceptionally unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>15</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0.03293540043114</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.866666666666667</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>104.44</v>
+      </c>
+      <c r="K55" t="n">
+        <v>-1.00619834710744</v>
+      </c>
+      <c r="L55" t="n">
+        <v>-2.27265037816285</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-0.12800885139497</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.963422392864265</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Rangitikei at Onepuhi</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>15</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0.136780705862374</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>5.605</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-0.0847901785714285</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.146107116422414</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.039031748844326</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-1.51275965337071</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>1811307.816</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5560822.986</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Rangitikei District</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Rangitīkei-Turakina</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Lower Rangitikei</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Rang_3a</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/RangitikeiatOnepuhi_b6bbf4af3b.xlsx
+++ b/trend_results/Rivers/RangitikeiatOnepuhi_b6bbf4af3b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="70">
   <si>
     <t>site name</t>
   </si>
@@ -139,7 +139,7 @@
     <t>ok</t>
   </si>
   <si>
-    <t>&lt; 5 Non-censored values</t>
+    <t>WARNING: Sen slope based on two censored values</t>
   </si>
   <si>
     <t>WARNING: Sen slope influenced by censored values</t>
@@ -148,55 +148,52 @@
     <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
     <t>RepSite</t>
   </si>
   <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely increasing</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Virtually certain increasing</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Very likely increasing</t>
+  </si>
+  <si>
     <t>Very likely improving</t>
   </si>
   <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain increasing</t>
-  </si>
-  <si>
-    <t>Not Analysed improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
+    <t>Very unlikely improving</t>
   </si>
   <si>
     <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely likely increasing</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Very likely increasing</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
   </si>
   <si>
     <t>Rangitikei District</t>
@@ -584,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W56"/>
+  <dimension ref="A1:W60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -678,38 +675,38 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.9233323238091971</v>
+        <v>0.995917191301946</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.897435897435897</v>
+        <v>0.95</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.5</v>
+        <v>7.25</v>
       </c>
       <c r="K2">
-        <v>-2.15236607142857</v>
+        <v>-3.54107122497068</v>
       </c>
       <c r="L2">
-        <v>-6.8656015037594</v>
+        <v>-7.71405993183626</v>
       </c>
       <c r="M2">
-        <v>0.167325322175098</v>
+        <v>-0.953262362637363</v>
       </c>
       <c r="N2">
-        <v>-28.6982142857143</v>
+        <v>-48.8423617237335</v>
       </c>
       <c r="O2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" t="s">
         <v>45</v>
       </c>
-      <c r="P2" t="s">
-        <v>46</v>
-      </c>
       <c r="Q2">
         <v>1811307.816</v>
       </c>
@@ -717,19 +714,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V2" t="s">
+        <v>63</v>
+      </c>
+      <c r="W2" t="s">
         <v>64</v>
-      </c>
-      <c r="W2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -749,37 +746,37 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.276534885234562</v>
+        <v>0.012538493215458</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.794871794871795</v>
+        <v>0.794117647058823</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.33</v>
+        <v>0.325</v>
       </c>
       <c r="K3">
-        <v>-0.0152717770034843</v>
+        <v>-0.0732845104333868</v>
       </c>
       <c r="L3">
-        <v>-0.0857438021698939</v>
+        <v>-0.182030054229568</v>
       </c>
       <c r="M3">
-        <v>0.0314662680127483</v>
+        <v>-0.013879024432693</v>
       </c>
       <c r="N3">
-        <v>-4.62781121317707</v>
+        <v>-22.5490801333498</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q3">
         <v>1811307.816</v>
@@ -788,19 +785,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -820,37 +817,37 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.9909973244872921</v>
+        <v>0.988328898993555</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.913793103448276</v>
+        <v>0.929824561403509</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.115</v>
+        <v>10.14</v>
       </c>
       <c r="K4">
-        <v>0.09046085930391271</v>
+        <v>0.0596732747594951</v>
       </c>
       <c r="L4">
-        <v>0.0220742106604674</v>
+        <v>0.0104508348438086</v>
       </c>
       <c r="M4">
-        <v>0.146424992430711</v>
+        <v>0.139273478503841</v>
       </c>
       <c r="N4">
-        <v>0.894323868550793</v>
+        <v>0.58849383392007</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q4">
         <v>1811307.816</v>
@@ -859,19 +856,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -891,37 +888,37 @@
         <v>40</v>
       </c>
       <c r="F5">
-        <v>0.231646693351403</v>
+        <v>0.0261369098261484</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.379310344827586</v>
+        <v>0.403508771929825</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="K5">
-        <v>0.0002869206598586</v>
+        <v>0.0009235145385587</v>
       </c>
       <c r="L5">
-        <v>-0.0003838595126507</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0013595634919184</v>
+        <v>0.0016749893095739</v>
       </c>
       <c r="N5">
-        <v>2.6083696350782</v>
+        <v>9.23514538558786</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q5">
         <v>1811307.816</v>
@@ -930,19 +927,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -962,37 +959,37 @@
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.302645906451533</v>
+        <v>0.302780828756976</v>
       </c>
       <c r="G6">
-        <v>0.0344827586206897</v>
+        <v>0.0526315789473684</v>
       </c>
       <c r="H6">
-        <v>0.724137931034483</v>
+        <v>0.842105263157895</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J6">
-        <v>90.5</v>
+        <v>90</v>
       </c>
       <c r="K6">
-        <v>4.34821428571429</v>
+        <v>4.45281468531469</v>
       </c>
       <c r="L6">
-        <v>-8.38689849654248</v>
+        <v>-6.49743311983104</v>
       </c>
       <c r="M6">
-        <v>21.8222816137384</v>
+        <v>21.4280047173766</v>
       </c>
       <c r="N6">
-        <v>4.80465666929755</v>
+        <v>4.94757187257187</v>
       </c>
       <c r="O6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q6">
         <v>1811307.816</v>
@@ -1001,19 +998,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1032,17 +1029,35 @@
       <c r="E7" t="s">
         <v>41</v>
       </c>
+      <c r="F7">
+        <v>0.0007619988734404</v>
+      </c>
       <c r="G7">
-        <v>0.927272727272727</v>
+        <v>0.890909090909091</v>
       </c>
       <c r="H7">
-        <v>0.109090909090909</v>
+        <v>0.127272727272727</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.005</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
       </c>
       <c r="O7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P7" t="s">
         <v>49</v>
@@ -1054,19 +1069,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1086,25 +1101,25 @@
         <v>42</v>
       </c>
       <c r="F8">
-        <v>0.999068741143306</v>
+        <v>0.998834205316998</v>
       </c>
       <c r="G8">
-        <v>0.482758620689655</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="H8">
-        <v>0.0862068965517241</v>
+        <v>0.0701754385964912</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>-0.0004817129364385</v>
+        <v>-0.0003016102394715</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1113,11 +1128,11 @@
         <v>0</v>
       </c>
       <c r="O8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" t="s">
         <v>45</v>
       </c>
-      <c r="P8" t="s">
-        <v>50</v>
-      </c>
       <c r="Q8">
         <v>1811307.816</v>
       </c>
@@ -1125,19 +1140,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1157,37 +1172,37 @@
         <v>42</v>
       </c>
       <c r="F9">
-        <v>0.61805470326473</v>
+        <v>0.705238276202387</v>
       </c>
       <c r="G9">
-        <v>0.155172413793103</v>
+        <v>0.192982456140351</v>
       </c>
       <c r="H9">
-        <v>0.844827586206897</v>
+        <v>0.789473684210526</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.0975</v>
+        <v>0.078</v>
       </c>
       <c r="K9">
-        <v>-0.0011181122448979</v>
+        <v>-0.0028741218602825</v>
       </c>
       <c r="L9">
-        <v>-0.0124173790706365</v>
+        <v>-0.0144003260874586</v>
       </c>
       <c r="M9">
-        <v>0.010025716832558</v>
+        <v>0.0100264466175882</v>
       </c>
       <c r="N9">
-        <v>-1.14678178963893</v>
+        <v>-3.68477161574689</v>
       </c>
       <c r="O9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q9">
         <v>1811307.816</v>
@@ -1196,19 +1211,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1228,13 +1243,13 @@
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.40742894585203</v>
+        <v>0.746838868731471</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.771929824561403</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1243,22 +1258,22 @@
         <v>7.84</v>
       </c>
       <c r="K10">
-        <v>-0.0050602708533076</v>
+        <v>0.0199567571215241</v>
       </c>
       <c r="L10">
-        <v>-0.0417962431632511</v>
+        <v>-0.0245623639126047</v>
       </c>
       <c r="M10">
-        <v>0.04788836765209</v>
+        <v>0.071521120125131</v>
       </c>
       <c r="N10">
-        <v>-0.0645442710881079</v>
+        <v>0.254550473488828</v>
       </c>
       <c r="O10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q10">
         <v>1811307.816</v>
@@ -1267,16 +1282,16 @@
         <v>5560822.986</v>
       </c>
       <c r="S10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1296,37 +1311,37 @@
         <v>40</v>
       </c>
       <c r="F11">
-        <v>0.722866081837841</v>
+        <v>0.619479619759888</v>
       </c>
       <c r="G11">
-        <v>0.0172413793103448</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>0.913793103448276</v>
+        <v>0.912280701754386</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1055</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="K11">
-        <v>-0.0035755193934459</v>
+        <v>-0.0012353598641924</v>
       </c>
       <c r="L11">
-        <v>-0.0125295129415308</v>
+        <v>-0.0138929017113166</v>
       </c>
       <c r="M11">
-        <v>0.0090396693711062</v>
+        <v>0.0107141900276688</v>
       </c>
       <c r="N11">
-        <v>-3.3891179084796</v>
+        <v>-1.47066650499097</v>
       </c>
       <c r="O11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q11">
         <v>1811307.816</v>
@@ -1335,19 +1350,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1367,37 +1382,37 @@
         <v>43</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.439221288501481</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.517241379310345</v>
+        <v>0.508771929824561</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>-0.01330779188802</v>
+        <v>-0.0181205852425286</v>
       </c>
       <c r="M12">
-        <v>0.0100344324567745</v>
+        <v>0.0138272111887067</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q12">
         <v>1811307.816</v>
@@ -1406,19 +1421,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1432,43 +1447,43 @@
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>40</v>
       </c>
       <c r="F13">
-        <v>0.117166593603105</v>
+        <v>0.167345802141566</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.689655172413793</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0255</v>
+        <v>0.025</v>
       </c>
       <c r="K13">
-        <v>0.002879210606425</v>
+        <v>0.0018804615027829</v>
       </c>
       <c r="L13">
-        <v>-0.0005660947201373</v>
+        <v>-0.0011154951496443</v>
       </c>
       <c r="M13">
-        <v>0.004547874830724</v>
+        <v>0.0054016456242518</v>
       </c>
       <c r="N13">
-        <v>11.2910219859805</v>
+        <v>7.52184601113173</v>
       </c>
       <c r="O13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q13">
         <v>1811307.816</v>
@@ -1477,19 +1492,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1509,37 +1524,37 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.671309786444959</v>
+        <v>0.129097523791973</v>
       </c>
       <c r="G14">
-        <v>0.0172413793103448</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.9655172413793101</v>
+        <v>0.9649122807017541</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>4.95</v>
+        <v>3.75</v>
       </c>
       <c r="K14">
-        <v>-0.361236263736264</v>
+        <v>0.351839753487033</v>
       </c>
       <c r="L14">
-        <v>-1.39321454530267</v>
+        <v>-0.289428195062451</v>
       </c>
       <c r="M14">
-        <v>0.305850598584844</v>
+        <v>3.15646836845181</v>
       </c>
       <c r="N14">
-        <v>-7.29770229770231</v>
+        <v>9.382393426320879</v>
       </c>
       <c r="O14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="Q14">
         <v>1811307.816</v>
@@ -1548,19 +1563,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1580,37 +1595,37 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.258113964162581</v>
+        <v>0.365923101491377</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.732558139534884</v>
+        <v>0.7654320987654319</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="K15">
-        <v>0.115952380952381</v>
+        <v>0.0490615690898639</v>
       </c>
       <c r="L15">
-        <v>-0.218280543141455</v>
+        <v>-0.30894494533804</v>
       </c>
       <c r="M15">
-        <v>0.445991634038526</v>
+        <v>0.393172198758991</v>
       </c>
       <c r="N15">
-        <v>2.18778077268643</v>
+        <v>1.09025709088586</v>
       </c>
       <c r="O15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P15" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="Q15">
         <v>1811307.816</v>
@@ -1619,19 +1634,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V15" t="s">
+        <v>63</v>
+      </c>
+      <c r="W15" t="s">
         <v>64</v>
-      </c>
-      <c r="W15" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1651,37 +1666,37 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.071654529690851</v>
+        <v>0.158738548500999</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.705128205128205</v>
+        <v>0.684210526315789</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.385</v>
+        <v>0.34</v>
       </c>
       <c r="K16">
-        <v>-0.0374487354750512</v>
+        <v>-0.016697185601938</v>
       </c>
       <c r="L16">
-        <v>-0.104187340483573</v>
+        <v>-0.0404429771992</v>
       </c>
       <c r="M16">
-        <v>0.0010127536259444</v>
+        <v>0.0028993848630603</v>
       </c>
       <c r="N16">
-        <v>-9.72694427923409</v>
+        <v>-4.91093694174647</v>
       </c>
       <c r="O16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="Q16">
         <v>1811307.816</v>
@@ -1690,19 +1705,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1722,13 +1737,13 @@
         <v>40</v>
       </c>
       <c r="F17">
-        <v>0.973141381180883</v>
+        <v>0.993198584120263</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.837606837606838</v>
+        <v>0.836206896551724</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1737,22 +1752,22 @@
         <v>10.09</v>
       </c>
       <c r="K17">
-        <v>0.0223622448979592</v>
+        <v>0.0258620327041379</v>
       </c>
       <c r="L17">
-        <v>0.0014287868262713</v>
+        <v>0.0063408329440407</v>
       </c>
       <c r="M17">
-        <v>0.0527309697286824</v>
+        <v>0.0568451897933386</v>
       </c>
       <c r="N17">
-        <v>0.221627798790477</v>
+        <v>0.256313505491952</v>
       </c>
       <c r="O17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q17">
         <v>1811307.816</v>
@@ -1761,19 +1776,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1790,40 +1805,40 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F18">
-        <v>0.124169963630101</v>
+        <v>0.562870776476426</v>
       </c>
       <c r="G18">
-        <v>0.0847457627118644</v>
+        <v>0.0854700854700855</v>
       </c>
       <c r="H18">
-        <v>0.186440677966102</v>
+        <v>0.188034188034188</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.0105</v>
+        <v>0.011</v>
       </c>
       <c r="K18">
-        <v>0.0001571643717728</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>-0.0003252674917996</v>
       </c>
       <c r="M18">
-        <v>0.0004517214466501</v>
+        <v>0.0002233174261425</v>
       </c>
       <c r="N18">
-        <v>1.49680354069339</v>
+        <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P18" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="Q18">
         <v>1811307.816</v>
@@ -1832,19 +1847,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1858,43 +1873,43 @@
         <v>10</v>
       </c>
       <c r="D19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="s">
         <v>40</v>
       </c>
       <c r="F19">
-        <v>0.344214719670169</v>
+        <v>0.703533989961074</v>
       </c>
       <c r="G19">
-        <v>0.0256410256410256</v>
+        <v>0.0344827586206897</v>
       </c>
       <c r="H19">
-        <v>0.58974358974359</v>
+        <v>0.672413793103448</v>
       </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19">
-        <v>84</v>
+        <v>90.5</v>
       </c>
       <c r="K19">
-        <v>0.917892272956928</v>
+        <v>-1.55137764599945</v>
       </c>
       <c r="L19">
-        <v>-3.53404001274137</v>
+        <v>-6.56960586146934</v>
       </c>
       <c r="M19">
-        <v>5.23695764530427</v>
+        <v>3.2573795217092</v>
       </c>
       <c r="N19">
-        <v>1.0927288963773</v>
+        <v>-1.71422944309331</v>
       </c>
       <c r="O19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q19">
         <v>1811307.816</v>
@@ -1903,19 +1918,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1932,16 +1947,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F20">
-        <v>0.517287212064233</v>
+        <v>0.0453596256097435</v>
       </c>
       <c r="G20">
-        <v>0.93859649122807</v>
+        <v>0.9203539823008851</v>
       </c>
       <c r="H20">
-        <v>0.157894736842105</v>
+        <v>0.176991150442478</v>
       </c>
       <c r="I20">
         <v>11</v>
@@ -1962,10 +1977,10 @@
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P20" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="Q20">
         <v>1811307.816</v>
@@ -1974,19 +1989,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2006,13 +2021,13 @@
         <v>42</v>
       </c>
       <c r="F21">
-        <v>0.874035395952979</v>
+        <v>0.952341186587925</v>
       </c>
       <c r="G21">
-        <v>0.474576271186441</v>
+        <v>0.547008547008547</v>
       </c>
       <c r="H21">
-        <v>0.0677966101694915</v>
+        <v>0.0512820512820513</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2033,10 +2048,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q21">
         <v>1811307.816</v>
@@ -2045,19 +2060,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2077,37 +2092,37 @@
         <v>42</v>
       </c>
       <c r="F22">
-        <v>0.0011801070610284</v>
+        <v>0.125064715126016</v>
       </c>
       <c r="G22">
-        <v>0.220338983050847</v>
+        <v>0.230769230769231</v>
       </c>
       <c r="H22">
-        <v>0.686440677966102</v>
+        <v>0.658119658119658</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.083</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="K22">
-        <v>0.0029223883572567</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.0060144807523597</v>
+        <v>0.003501235655866</v>
       </c>
       <c r="N22">
-        <v>3.52094982802022</v>
+        <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P22" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="Q22">
         <v>1811307.816</v>
@@ -2116,19 +2131,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2148,13 +2163,13 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <v>0.178446275617984</v>
+        <v>0.248185041336705</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.606837606837607</v>
+        <v>0.629310344827586</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2163,22 +2178,22 @@
         <v>7.85</v>
       </c>
       <c r="K23">
-        <v>-0.007966194111232399</v>
+        <v>-0.0054878740113931</v>
       </c>
       <c r="L23">
-        <v>-0.0249677354771208</v>
+        <v>-0.021676651409971</v>
       </c>
       <c r="M23">
-        <v>0.0063849023641898</v>
+        <v>0.0092447414073546</v>
       </c>
       <c r="N23">
-        <v>-0.101480179760923</v>
+        <v>-0.0699092230750718</v>
       </c>
       <c r="O23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q23">
         <v>1811307.816</v>
@@ -2187,16 +2202,16 @@
         <v>5560822.986</v>
       </c>
       <c r="S23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2216,37 +2231,37 @@
         <v>42</v>
       </c>
       <c r="F24">
-        <v>0.0021225177867396</v>
+        <v>0.13367434446065</v>
       </c>
       <c r="G24">
-        <v>0.0677966101694915</v>
+        <v>0.0683760683760684</v>
       </c>
       <c r="H24">
-        <v>0.720338983050847</v>
+        <v>0.692307692307692</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.08749999999999999</v>
+        <v>0.091</v>
       </c>
       <c r="K24">
-        <v>0.0034765260593722</v>
+        <v>0.0011632165605095</v>
       </c>
       <c r="L24">
-        <v>0.001003434065934</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.0068164313661941</v>
+        <v>0.00449695737497</v>
       </c>
       <c r="N24">
-        <v>3.97317263928261</v>
+        <v>1.27825995660391</v>
       </c>
       <c r="O24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P24" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="Q24">
         <v>1811307.816</v>
@@ -2255,19 +2270,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2287,37 +2302,37 @@
         <v>40</v>
       </c>
       <c r="F25">
-        <v>0.212846058893761</v>
+        <v>0.782552400579552</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.542372881355932</v>
+        <v>0.452991452991453</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.205</v>
+        <v>0.2</v>
       </c>
       <c r="K25">
-        <v>0.0014673505005268</v>
+        <v>-0.0019991789819376</v>
       </c>
       <c r="L25">
-        <v>-0.0019856942844843</v>
+        <v>-0.0066469517743403</v>
       </c>
       <c r="M25">
-        <v>0.0050171703296703</v>
+        <v>0.0014263494728918</v>
       </c>
       <c r="N25">
-        <v>0.715780731964328</v>
+        <v>-0.999589490968801</v>
       </c>
       <c r="O25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P25" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q25">
         <v>1811307.816</v>
@@ -2326,19 +2341,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2358,37 +2373,37 @@
         <v>40</v>
       </c>
       <c r="F26">
-        <v>0.228754264897735</v>
+        <v>0.722409776456287</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.533898305084746</v>
+        <v>0.538461538461538</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.0255</v>
+        <v>0.026</v>
       </c>
       <c r="K26">
-        <v>0.0004143503835166</v>
+        <v>-0.0003334094020994</v>
       </c>
       <c r="L26">
-        <v>-0.0004981768800961</v>
+        <v>-0.0010003040096977</v>
       </c>
       <c r="M26">
-        <v>0.001003434065934</v>
+        <v>0.0005705169168584</v>
       </c>
       <c r="N26">
-        <v>1.6249034647712</v>
+        <v>-1.28234385422884</v>
       </c>
       <c r="O26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q26">
         <v>1811307.816</v>
@@ -2397,19 +2412,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2429,37 +2444,37 @@
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.778265609378625</v>
+        <v>0.832096801183468</v>
       </c>
       <c r="G27">
-        <v>0.008474576271186401</v>
+        <v>0.008547008547008499</v>
       </c>
       <c r="H27">
-        <v>0.966101694915254</v>
+        <v>0.948717948717949</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27">
-        <v>5.695</v>
+        <v>5.73</v>
       </c>
       <c r="K27">
-        <v>-0.0900205845176076</v>
+        <v>-0.113101092896175</v>
       </c>
       <c r="L27">
-        <v>-0.404431082930402</v>
+        <v>-0.474676265050307</v>
       </c>
       <c r="M27">
-        <v>0.0889630530559032</v>
+        <v>0.0455999517227772</v>
       </c>
       <c r="N27">
-        <v>-1.58069507493604</v>
+        <v>-1.97384106276047</v>
       </c>
       <c r="O27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q27">
         <v>1811307.816</v>
@@ -2468,19 +2483,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2500,37 +2515,37 @@
         <v>40</v>
       </c>
       <c r="F28">
-        <v>2.66024431006676E-07</v>
+        <v>2.87502586698587E-06</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.727941176470588</v>
+        <v>0.718518518518519</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2.775</v>
+        <v>3.1</v>
       </c>
       <c r="K28">
-        <v>0.312126141402457</v>
+        <v>0.281645698051948</v>
       </c>
       <c r="L28">
-        <v>0.202558536603155</v>
+        <v>0.178011175881638</v>
       </c>
       <c r="M28">
-        <v>0.550784580823734</v>
+        <v>0.498152787480595</v>
       </c>
       <c r="N28">
-        <v>11.2477888793678</v>
+        <v>9.08534509844994</v>
       </c>
       <c r="O28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P28" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="Q28">
         <v>1811307.816</v>
@@ -2539,19 +2554,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V28" t="s">
+        <v>63</v>
+      </c>
+      <c r="W28" t="s">
         <v>64</v>
-      </c>
-      <c r="W28" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2571,13 +2586,13 @@
         <v>40</v>
       </c>
       <c r="F29">
-        <v>0.078784085497383</v>
+        <v>0.017912545264248</v>
       </c>
       <c r="G29">
-        <v>0.024390243902439</v>
+        <v>0.0256410256410256</v>
       </c>
       <c r="H29">
-        <v>0.585365853658537</v>
+        <v>0.606837606837607</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -2586,22 +2601,22 @@
         <v>0.43</v>
       </c>
       <c r="K29">
-        <v>-0.0133505939689309</v>
+        <v>-0.0200301617768029</v>
       </c>
       <c r="L29">
-        <v>-0.0279277990774779</v>
+        <v>-0.0362792506322748</v>
       </c>
       <c r="M29">
-        <v>0.00186834820822</v>
+        <v>-0.0038119405354657</v>
       </c>
       <c r="N29">
-        <v>-3.1047892951002</v>
+        <v>-4.65817715739602</v>
       </c>
       <c r="O29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P29" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="Q29">
         <v>1811307.816</v>
@@ -2610,19 +2625,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2642,37 +2657,37 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.333049473027253</v>
+        <v>0.931962600428103</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.805714285714286</v>
+        <v>0.801136363636364</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>10.14</v>
+        <v>10.115</v>
       </c>
       <c r="K30">
-        <v>-0.0050164813472025</v>
+        <v>0.011596574467456</v>
       </c>
       <c r="L30">
-        <v>-0.0200988553252163</v>
+        <v>-0.000728226067642</v>
       </c>
       <c r="M30">
-        <v>0.0100187679662323</v>
+        <v>0.0275222633824419</v>
       </c>
       <c r="N30">
-        <v>-0.0494722026351335</v>
+        <v>0.114647300716322</v>
       </c>
       <c r="O30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P30" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Q30">
         <v>1811307.816</v>
@@ -2681,19 +2696,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2713,13 +2728,13 @@
         <v>40</v>
       </c>
       <c r="F31">
-        <v>0.000553887153374</v>
+        <v>0.0011511471830573</v>
       </c>
       <c r="G31">
-        <v>0.123595505617978</v>
+        <v>0.107344632768362</v>
       </c>
       <c r="H31">
-        <v>0.129213483146067</v>
+        <v>0.129943502824859</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -2728,22 +2743,22 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="K31">
-        <v>0.0002866954474097</v>
+        <v>0.0002488079147356</v>
       </c>
       <c r="L31">
-        <v>0.0001185876623376</v>
+        <v>8.805868454488669E-05</v>
       </c>
       <c r="M31">
-        <v>0.0004419697677264</v>
+        <v>0.000387464639321</v>
       </c>
       <c r="N31">
-        <v>3.18550497121925</v>
+        <v>2.7645323859519</v>
       </c>
       <c r="O31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P31" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="Q31">
         <v>1811307.816</v>
@@ -2752,19 +2767,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2784,37 +2799,37 @@
         <v>40</v>
       </c>
       <c r="F32">
-        <v>0.914845279071562</v>
+        <v>0.947379954262828</v>
       </c>
       <c r="G32">
-        <v>0.0227272727272727</v>
+        <v>0.0228571428571429</v>
       </c>
       <c r="H32">
-        <v>0.630681818181818</v>
+        <v>0.674285714285714</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J32">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K32">
-        <v>-2.39901477832512</v>
+        <v>-2.88487293956044</v>
       </c>
       <c r="L32">
-        <v>-5.69050767277675</v>
+        <v>-7.14569819190448</v>
       </c>
       <c r="M32">
-        <v>0.381577322992356</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>-2.2009309892891</v>
+        <v>-2.62261176323676</v>
       </c>
       <c r="O32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P32" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="Q32">
         <v>1811307.816</v>
@@ -2823,19 +2838,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2852,16 +2867,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F33">
-        <v>0.983485602537514</v>
+        <v>0.928639815395416</v>
       </c>
       <c r="G33">
-        <v>0.885057471264368</v>
+        <v>0.867052023121387</v>
       </c>
       <c r="H33">
-        <v>0.183908045977011</v>
+        <v>0.202312138728324</v>
       </c>
       <c r="I33">
         <v>12</v>
@@ -2882,10 +2897,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q33">
         <v>1811307.816</v>
@@ -2894,19 +2909,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2926,19 +2941,19 @@
         <v>42</v>
       </c>
       <c r="F34">
-        <v>0.890773710027854</v>
+        <v>0.956260160201522</v>
       </c>
       <c r="G34">
-        <v>0.505952380952381</v>
+        <v>0.514124293785311</v>
       </c>
       <c r="H34">
-        <v>0.0714285714285714</v>
+        <v>0.0677966101694915</v>
       </c>
       <c r="I34">
         <v>2</v>
       </c>
       <c r="J34">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -2953,10 +2968,10 @@
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q34">
         <v>1811307.816</v>
@@ -2965,19 +2980,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2997,37 +3012,37 @@
         <v>42</v>
       </c>
       <c r="F35">
-        <v>0.0016548280125593</v>
+        <v>0.0084678696210525</v>
       </c>
       <c r="G35">
-        <v>0.244047619047619</v>
+        <v>0.259887005649718</v>
       </c>
       <c r="H35">
-        <v>0.619047619047619</v>
+        <v>0.598870056497175</v>
       </c>
       <c r="I35">
         <v>2</v>
       </c>
       <c r="J35">
-        <v>0.07315000000000001</v>
+        <v>0.067</v>
       </c>
       <c r="K35">
-        <v>0.0007890021295597</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0.0022712244190674</v>
+        <v>0.0016287145732316</v>
       </c>
       <c r="N35">
-        <v>1.07860851614455</v>
+        <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P35" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="Q35">
         <v>1811307.816</v>
@@ -3036,19 +3051,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3068,37 +3083,37 @@
         <v>40</v>
       </c>
       <c r="F36">
-        <v>0.946610392641081</v>
+        <v>0.7721999348852761</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.508474576271186</v>
+        <v>0.488636363636364</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7.83</v>
+        <v>7.84</v>
       </c>
       <c r="K36">
-        <v>0.0081559371177267</v>
+        <v>0.0032972323318179</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>-0.0039702234639477</v>
       </c>
       <c r="M36">
-        <v>0.0160403718238668</v>
+        <v>0.0106486880466473</v>
       </c>
       <c r="N36">
-        <v>0.10416267072448</v>
+        <v>0.0420565348446163</v>
       </c>
       <c r="O36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P36" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="Q36">
         <v>1811307.816</v>
@@ -3107,16 +3122,16 @@
         <v>5560822.986</v>
       </c>
       <c r="S36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3133,40 +3148,40 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F37">
-        <v>0.0782926757655405</v>
+        <v>0.0832174836350809</v>
       </c>
       <c r="G37">
-        <v>0.0449438202247191</v>
+        <v>0.0451977401129944</v>
       </c>
       <c r="H37">
-        <v>0.7247191011235951</v>
+        <v>0.72316384180791</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37">
-        <v>0.0835</v>
+        <v>0.083</v>
       </c>
       <c r="K37">
-        <v>0.0005702162991118</v>
+        <v>0.0006148430391264</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
       <c r="M37">
-        <v>0.0016604411501494</v>
+        <v>0.0017249560045025</v>
       </c>
       <c r="N37">
-        <v>0.682893771391434</v>
+        <v>0.740774745935513</v>
       </c>
       <c r="O37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P37" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q37">
         <v>1811307.816</v>
@@ -3175,19 +3190,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3207,37 +3222,37 @@
         <v>40</v>
       </c>
       <c r="F38">
-        <v>0.820445767442389</v>
+        <v>0.8298437767789471</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.528089887640449</v>
+        <v>0.508474576271186</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.2</v>
+        <v>0.192</v>
       </c>
       <c r="K38">
-        <v>-0.0012909643954498</v>
+        <v>-0.0012482911825017</v>
       </c>
       <c r="L38">
-        <v>-0.0041490829474443</v>
+        <v>-0.0040320140376063</v>
       </c>
       <c r="M38">
-        <v>0.0008719632234806</v>
+        <v>0.0008322764462492999</v>
       </c>
       <c r="N38">
-        <v>-0.645482197724926</v>
+        <v>-0.650151657552974</v>
       </c>
       <c r="O38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P38" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q38">
         <v>1811307.816</v>
@@ -3246,19 +3261,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3278,37 +3293,37 @@
         <v>43</v>
       </c>
       <c r="F39">
-        <v>0.476780064918361</v>
+        <v>0.517563083843205</v>
       </c>
       <c r="G39">
-        <v>0.0056179775280898</v>
+        <v>0.0056497175141242</v>
       </c>
       <c r="H39">
-        <v>0.460674157303371</v>
+        <v>0.451977401129944</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39">
-        <v>0.0255</v>
+        <v>0.025</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>-0.0003998357963875</v>
+        <v>-0.0003998811314838</v>
       </c>
       <c r="M39">
-        <v>0.000376607882392</v>
+        <v>0.0003990955698442</v>
       </c>
       <c r="N39">
         <v>0</v>
       </c>
       <c r="O39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q39">
         <v>1811307.816</v>
@@ -3317,19 +3332,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3349,37 +3364,37 @@
         <v>40</v>
       </c>
       <c r="F40">
-        <v>0.918273262049921</v>
+        <v>0.917714853123645</v>
       </c>
       <c r="G40">
-        <v>0.0056179775280898</v>
+        <v>0.0056497175141242</v>
       </c>
       <c r="H40">
-        <v>0.938202247191011</v>
+        <v>0.937853107344633</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40">
-        <v>6.88</v>
+        <v>6.39</v>
       </c>
       <c r="K40">
-        <v>-0.06516624876146949</v>
+        <v>-0.0719422058975701</v>
       </c>
       <c r="L40">
-        <v>-0.215027069566836</v>
+        <v>-0.248003707930479</v>
       </c>
       <c r="M40">
-        <v>0.0099489930630595</v>
+        <v>0.0067928945054924</v>
       </c>
       <c r="N40">
-        <v>-0.9471838482771719</v>
+        <v>-1.12585611733286</v>
       </c>
       <c r="O40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P40" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="Q40">
         <v>1811307.816</v>
@@ -3388,19 +3403,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3420,37 +3435,37 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>0.09359574863679999</v>
+        <v>0.045372039202087</v>
       </c>
       <c r="G41">
-        <v>0.0196078431372549</v>
+        <v>0.0191082802547771</v>
       </c>
       <c r="H41">
-        <v>0.562091503267974</v>
+        <v>0.554140127388535</v>
       </c>
       <c r="I41">
         <v>2</v>
       </c>
       <c r="J41">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="K41">
-        <v>-0.0083485714285714</v>
+        <v>-0.008954102812442299</v>
       </c>
       <c r="L41">
-        <v>-0.0200273499320689</v>
+        <v>-0.0200197690339753</v>
       </c>
       <c r="M41">
-        <v>0.0024578876646202</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>-1.8552380952381</v>
+        <v>-2.03502336646416</v>
       </c>
       <c r="O41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P41" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="Q41">
         <v>1811307.816</v>
@@ -3459,19 +3474,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3479,7 +3494,7 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42">
         <v>20</v>
@@ -3488,40 +3503,40 @@
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F42">
-        <v>0.0422374479534813</v>
+        <v>0.5</v>
       </c>
       <c r="G42">
-        <v>0.123222748815166</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>0.123222748815166</v>
+        <v>0.798994974874372</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>0.01</v>
+        <v>10.21</v>
       </c>
       <c r="K42">
-        <v>0.0001107489387507</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>-0.0155722645128926</v>
       </c>
       <c r="M42">
-        <v>0.0002503623968566</v>
+        <v>0.0123703308145058</v>
       </c>
       <c r="N42">
-        <v>1.10748938750758</v>
+        <v>0</v>
       </c>
       <c r="O42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q42">
         <v>1811307.816</v>
@@ -3530,19 +3545,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3550,7 +3565,7 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C43">
         <v>20</v>
@@ -3562,37 +3577,37 @@
         <v>40</v>
       </c>
       <c r="F43">
-        <v>0.854215996086076</v>
+        <v>0.0410188945564356</v>
       </c>
       <c r="G43">
-        <v>0.0287081339712919</v>
+        <v>0.121621621621622</v>
       </c>
       <c r="H43">
-        <v>0.617224880382775</v>
+        <v>0.117117117117117</v>
       </c>
       <c r="I43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>110</v>
+        <v>0.0095</v>
       </c>
       <c r="K43">
-        <v>-1.23866838109484</v>
+        <v>9.67823961271177E-05</v>
       </c>
       <c r="L43">
-        <v>-4.32091107716786</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>0.715427737010372</v>
+        <v>0.0002346456792937</v>
       </c>
       <c r="N43">
-        <v>-1.12606216463168</v>
+        <v>1.01876206449598</v>
       </c>
       <c r="O43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P43" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="Q43">
         <v>1811307.816</v>
@@ -3601,19 +3616,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3621,49 +3636,49 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C44">
         <v>20</v>
       </c>
       <c r="D44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F44">
-        <v>0.980582563341832</v>
+        <v>0.908090113767009</v>
       </c>
       <c r="G44">
-        <v>0.878640776699029</v>
+        <v>0.0318181818181818</v>
       </c>
       <c r="H44">
-        <v>0.218446601941748</v>
+        <v>0.663636363636364</v>
       </c>
       <c r="I44">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="J44">
-        <v>0.005</v>
+        <v>110</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>-1.75042070605451</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>-4.41661071455276</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>0.332528578748241</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>-1.59129155095864</v>
       </c>
       <c r="O44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q44">
         <v>1811307.816</v>
@@ -3672,16 +3687,16 @@
         <v>5560822.986</v>
       </c>
       <c r="S44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W44" t="s">
         <v>68</v>
@@ -3692,31 +3707,31 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C45">
         <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F45">
-        <v>0.0070840532615497</v>
+        <v>0.901544772277371</v>
       </c>
       <c r="G45">
-        <v>0.259067357512953</v>
+        <v>0.866359447004608</v>
       </c>
       <c r="H45">
-        <v>0.575129533678757</v>
+        <v>0.225806451612903</v>
       </c>
       <c r="I45">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J45">
-        <v>0.078</v>
+        <v>0.005</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -3725,16 +3740,16 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>0.0013395700968373</v>
+        <v>0</v>
       </c>
       <c r="N45">
         <v>0</v>
       </c>
       <c r="O45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q45">
         <v>1811307.816</v>
@@ -3743,19 +3758,19 @@
         <v>5560822.986</v>
       </c>
       <c r="S45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3763,7 +3778,7 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C46">
         <v>20</v>
@@ -3772,40 +3787,40 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F46">
-        <v>0.111315296643242</v>
+        <v>0.0239445799261266</v>
       </c>
       <c r="G46">
-        <v>0.0663507109004739</v>
+        <v>0.269607843137255</v>
       </c>
       <c r="H46">
-        <v>0.6729857819905209</v>
+        <v>0.563725490196078</v>
       </c>
       <c r="I46">
         <v>3</v>
       </c>
       <c r="J46">
-        <v>0.081</v>
+        <v>0.07215000000000001</v>
       </c>
       <c r="K46">
-        <v>0.0002924673987645</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>-0.000181142668269</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>0.0010673653917022</v>
+        <v>0.0008294254114727001</v>
       </c>
       <c r="N46">
-        <v>0.361070862672327</v>
+        <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q46">
         <v>1811307.816</v>
@@ -3814,16 +3829,16 @@
         <v>5560822.986</v>
       </c>
       <c r="S46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W46" t="s">
         <v>67</v>
@@ -3834,46 +3849,46 @@
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C47">
         <v>20</v>
       </c>
       <c r="D47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="s">
         <v>40</v>
       </c>
       <c r="F47">
-        <v>0.628537408041129</v>
+        <v>0.671667697443358</v>
       </c>
       <c r="G47">
-        <v>0.004739336492891</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>0.933649289099526</v>
+        <v>0.495192307692308</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>5.73</v>
+        <v>7.845</v>
       </c>
       <c r="K47">
-        <v>-0.008463766589424901</v>
+        <v>0.0018037670458661</v>
       </c>
       <c r="L47">
-        <v>-0.0639646604570618</v>
+        <v>-0.0049407099364855</v>
       </c>
       <c r="M47">
-        <v>0.0540993199103263</v>
+        <v>0.009086543240572001</v>
       </c>
       <c r="N47">
-        <v>-0.147709713602529</v>
+        <v>0.0229925690996319</v>
       </c>
       <c r="O47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P47" t="s">
         <v>51</v>
@@ -3885,19 +3900,16 @@
         <v>5560822.986</v>
       </c>
       <c r="S47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V47" t="s">
-        <v>64</v>
-      </c>
-      <c r="W47" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3905,49 +3917,49 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F48">
-        <v>0.021631363903455</v>
+        <v>0.204718412685978</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>0.0630630630630631</v>
       </c>
       <c r="H48">
-        <v>0.8</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J48">
-        <v>0.36</v>
+        <v>0.0743</v>
       </c>
       <c r="K48">
-        <v>-0.0090463704745597</v>
+        <v>0.0001666160283364</v>
       </c>
       <c r="L48">
-        <v>-0.0186390782332273</v>
+        <v>-0.0003085410045737</v>
       </c>
       <c r="M48">
-        <v>-0.0058362438566444</v>
+        <v>0.0008338571980848</v>
       </c>
       <c r="N48">
-        <v>-2.51288068737769</v>
+        <v>0.224247682821567</v>
       </c>
       <c r="O48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P48" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="Q48">
         <v>1811307.816</v>
@@ -3956,66 +3968,69 @@
         <v>5560822.986</v>
       </c>
       <c r="S48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22">
+        <v>63</v>
+      </c>
+      <c r="W48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" t="s">
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
         <v>40</v>
       </c>
       <c r="F49">
-        <v>0.40324797025367</v>
+        <v>0.714650949215668</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0.454976303317536</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>98</v>
+        <v>0.192</v>
       </c>
       <c r="K49">
-        <v>-2.31489640097742</v>
+        <v>-0.0002998768472906</v>
       </c>
       <c r="L49">
-        <v>-11.3255833811436</v>
+        <v>-0.0024987355733568</v>
       </c>
       <c r="M49">
-        <v>6.36688381053735</v>
+        <v>0.0011831904487547</v>
       </c>
       <c r="N49">
-        <v>-2.36213918467083</v>
+        <v>-0.156185857963875</v>
       </c>
       <c r="O49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q49">
         <v>1811307.816</v>
@@ -4024,66 +4039,69 @@
         <v>5560822.986</v>
       </c>
       <c r="S49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V49" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22">
+        <v>63</v>
+      </c>
+      <c r="W49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" t="s">
         <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F50">
-        <v>0.40324797025367</v>
+        <v>0.509055378737746</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>0.004739336492891</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0.42654028436019</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50">
-        <v>5.19</v>
+        <v>0.025</v>
       </c>
       <c r="K50">
-        <v>-0.143214701876513</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>-0.971816857499072</v>
+        <v>-0.0002468488008222</v>
       </c>
       <c r="M50">
-        <v>0.516558043934576</v>
+        <v>0.0002859099804305</v>
       </c>
       <c r="N50">
-        <v>-2.75943548895016</v>
+        <v>0</v>
       </c>
       <c r="O50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q50">
         <v>1811307.816</v>
@@ -4092,66 +4110,69 @@
         <v>5560822.986</v>
       </c>
       <c r="S50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22">
+        <v>63</v>
+      </c>
+      <c r="W50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" t="s">
         <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C51">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
         <v>40</v>
       </c>
       <c r="F51">
-        <v>0.00152087215995</v>
+        <v>0.6928103912726979</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>0.0045045045045045</v>
       </c>
       <c r="H51">
-        <v>0.9</v>
+        <v>0.927927927927928</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51">
-        <v>0.3975</v>
+        <v>5.695</v>
       </c>
       <c r="K51">
-        <v>-0.011305906506633</v>
+        <v>-0.0108416278219541</v>
       </c>
       <c r="L51">
-        <v>-0.0199231206644303</v>
+        <v>-0.0631905946861064</v>
       </c>
       <c r="M51">
-        <v>-0.0069512045792551</v>
+        <v>0.0351496212566819</v>
       </c>
       <c r="N51">
-        <v>-2.84425320921585</v>
+        <v>-0.190370988971977</v>
       </c>
       <c r="O51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P51" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Q51">
         <v>1811307.816</v>
@@ -4160,27 +4181,30 @@
         <v>5560822.986</v>
       </c>
       <c r="S51" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22">
+        <v>63</v>
+      </c>
+      <c r="W51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" t="s">
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C52">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -4189,37 +4213,37 @@
         <v>40</v>
       </c>
       <c r="F52">
-        <v>0.237137175383665</v>
+        <v>0.5</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>102.5</v>
+        <v>0.36</v>
       </c>
       <c r="K52">
-        <v>-1.01317614424411</v>
+        <v>-0.0017560096153846</v>
       </c>
       <c r="L52">
-        <v>-3.54812707395723</v>
+        <v>-0.008237277089107599</v>
       </c>
       <c r="M52">
-        <v>0.70834459053072</v>
+        <v>0.0112652972141205</v>
       </c>
       <c r="N52">
-        <v>-0.988464530969859</v>
+        <v>-0.487780448717949</v>
       </c>
       <c r="O52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P52" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="Q52">
         <v>1811307.816</v>
@@ -4228,27 +4252,27 @@
         <v>5560822.986</v>
       </c>
       <c r="S52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53" t="s">
         <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C53">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -4257,7 +4281,7 @@
         <v>40</v>
       </c>
       <c r="F53">
-        <v>0.360257393568128</v>
+        <v>0.231216363225238</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -4269,25 +4293,25 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>5.385</v>
+        <v>102</v>
       </c>
       <c r="K53">
-        <v>-0.049515993907083</v>
+        <v>-3.30323015493823</v>
       </c>
       <c r="L53">
-        <v>-0.246876034452686</v>
+        <v>-11.3255833811436</v>
       </c>
       <c r="M53">
-        <v>0.122311841671288</v>
+        <v>2.65972529492668</v>
       </c>
       <c r="N53">
-        <v>-0.919517064198384</v>
+        <v>-3.23846093621395</v>
       </c>
       <c r="O53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P53" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q53">
         <v>1811307.816</v>
@@ -4296,27 +4320,27 @@
         <v>5560822.986</v>
       </c>
       <c r="S53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U53" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54" t="s">
         <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C54">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -4325,37 +4349,37 @@
         <v>40</v>
       </c>
       <c r="F54">
-        <v>0.0036099404567829</v>
+        <v>0.889664319040077</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>0.928571428571429</v>
+        <v>1</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0.4075</v>
+        <v>5.19</v>
       </c>
       <c r="K54">
-        <v>-0.0118547147249744</v>
+        <v>0.654697100453894</v>
       </c>
       <c r="L54">
-        <v>-0.0167151098324828</v>
+        <v>-0.382268176173909</v>
       </c>
       <c r="M54">
-        <v>-0.0068728379267805</v>
+        <v>0.79605861778662</v>
       </c>
       <c r="N54">
-        <v>-2.90913244784647</v>
+        <v>12.614587677339</v>
       </c>
       <c r="O54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P54" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="Q54">
         <v>1811307.816</v>
@@ -4364,27 +4388,27 @@
         <v>5560822.986</v>
       </c>
       <c r="S54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V54" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55" t="s">
         <v>23</v>
       </c>
       <c r="B55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D55" t="b">
         <v>0</v>
@@ -4393,37 +4417,37 @@
         <v>40</v>
       </c>
       <c r="F55">
-        <v>0.03293540043114</v>
+        <v>0.00268562706079</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0.866666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>104.44</v>
+        <v>0.3925</v>
       </c>
       <c r="K55">
-        <v>-1.00619834710744</v>
+        <v>-0.011305906506633</v>
       </c>
       <c r="L55">
-        <v>-2.27265037816285</v>
+        <v>-0.0199231206644303</v>
       </c>
       <c r="M55">
-        <v>-0.12800885139497</v>
+        <v>-0.0069512045792551</v>
       </c>
       <c r="N55">
-        <v>-0.963422392864265</v>
+        <v>-2.88048573417401</v>
       </c>
       <c r="O55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P55" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="Q55">
         <v>1811307.816</v>
@@ -4432,27 +4456,27 @@
         <v>5560822.986</v>
       </c>
       <c r="S55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="T55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="V55" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56" t="s">
         <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C56">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D56" t="b">
         <v>0</v>
@@ -4461,7 +4485,7 @@
         <v>40</v>
       </c>
       <c r="F56">
-        <v>0.136780705862374</v>
+        <v>0.5</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -4473,43 +4497,315 @@
         <v>0</v>
       </c>
       <c r="J56">
+        <v>101.5</v>
+      </c>
+      <c r="K56">
+        <v>-0.249572941578408</v>
+      </c>
+      <c r="L56">
+        <v>-2.52159216706365</v>
+      </c>
+      <c r="M56">
+        <v>1.18893663589066</v>
+      </c>
+      <c r="N56">
+        <v>-0.245884671505821</v>
+      </c>
+      <c r="O56" t="s">
+        <v>44</v>
+      </c>
+      <c r="P56" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q56">
+        <v>1811307.816</v>
+      </c>
+      <c r="R56">
+        <v>5560822.986</v>
+      </c>
+      <c r="S56" t="s">
+        <v>60</v>
+      </c>
+      <c r="T56" t="s">
+        <v>61</v>
+      </c>
+      <c r="U56" t="s">
+        <v>62</v>
+      </c>
+      <c r="V56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57">
+        <v>0.429013828493761</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
         <v>5.605</v>
       </c>
-      <c r="K56">
-        <v>-0.0847901785714285</v>
-      </c>
-      <c r="L56">
-        <v>-0.146107116422414</v>
-      </c>
-      <c r="M56">
-        <v>0.039031748844326</v>
-      </c>
-      <c r="N56">
-        <v>-1.51275965337071</v>
-      </c>
-      <c r="O56" t="s">
-        <v>45</v>
-      </c>
-      <c r="P56" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q56">
-        <v>1811307.816</v>
-      </c>
-      <c r="R56">
-        <v>5560822.986</v>
-      </c>
-      <c r="S56" t="s">
-        <v>61</v>
-      </c>
-      <c r="T56" t="s">
-        <v>62</v>
-      </c>
-      <c r="U56" t="s">
-        <v>63</v>
-      </c>
-      <c r="V56" t="s">
-        <v>64</v>
+      <c r="K57">
+        <v>-0.0484718969555035</v>
+      </c>
+      <c r="L57">
+        <v>-0.246876034452686</v>
+      </c>
+      <c r="M57">
+        <v>0.256066679955376</v>
+      </c>
+      <c r="N57">
+        <v>-0.86479744791264</v>
+      </c>
+      <c r="O57" t="s">
+        <v>44</v>
+      </c>
+      <c r="P57" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q57">
+        <v>1811307.816</v>
+      </c>
+      <c r="R57">
+        <v>5560822.986</v>
+      </c>
+      <c r="S57" t="s">
+        <v>60</v>
+      </c>
+      <c r="T57" t="s">
+        <v>61</v>
+      </c>
+      <c r="U57" t="s">
+        <v>62</v>
+      </c>
+      <c r="V57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58">
+        <v>15</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>40</v>
+      </c>
+      <c r="F58">
+        <v>0.004319267254235</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0.933333333333333</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0.401</v>
+      </c>
+      <c r="K58">
+        <v>-0.0104325766686711</v>
+      </c>
+      <c r="L58">
+        <v>-0.013827219031749</v>
+      </c>
+      <c r="M58">
+        <v>-0.0064898913565046</v>
+      </c>
+      <c r="N58">
+        <v>-2.60164006700027</v>
+      </c>
+      <c r="O58" t="s">
+        <v>44</v>
+      </c>
+      <c r="P58" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q58">
+        <v>1811307.816</v>
+      </c>
+      <c r="R58">
+        <v>5560822.986</v>
+      </c>
+      <c r="S58" t="s">
+        <v>60</v>
+      </c>
+      <c r="T58" t="s">
+        <v>61</v>
+      </c>
+      <c r="U58" t="s">
+        <v>62</v>
+      </c>
+      <c r="V58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59">
+        <v>15</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>40</v>
+      </c>
+      <c r="F59">
+        <v>0.062271140790943</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0.933333333333333</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>104</v>
+      </c>
+      <c r="K59">
+        <v>-0.898610919143055</v>
+      </c>
+      <c r="L59">
+        <v>-2.27759529108399</v>
+      </c>
+      <c r="M59">
+        <v>0.0108311795932404</v>
+      </c>
+      <c r="N59">
+        <v>-0.864048960714476</v>
+      </c>
+      <c r="O59" t="s">
+        <v>44</v>
+      </c>
+      <c r="P59" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q59">
+        <v>1811307.816</v>
+      </c>
+      <c r="R59">
+        <v>5560822.986</v>
+      </c>
+      <c r="S59" t="s">
+        <v>60</v>
+      </c>
+      <c r="T59" t="s">
+        <v>61</v>
+      </c>
+      <c r="U59" t="s">
+        <v>62</v>
+      </c>
+      <c r="V59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60">
+        <v>15</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>40</v>
+      </c>
+      <c r="F60">
+        <v>0.383262649761786</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>5.63</v>
+      </c>
+      <c r="K60">
+        <v>-0.0521785714285715</v>
+      </c>
+      <c r="L60">
+        <v>-0.132402168188771</v>
+      </c>
+      <c r="M60">
+        <v>0.110872873680342</v>
+      </c>
+      <c r="N60">
+        <v>-0.926795229637149</v>
+      </c>
+      <c r="O60" t="s">
+        <v>44</v>
+      </c>
+      <c r="P60" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q60">
+        <v>1811307.816</v>
+      </c>
+      <c r="R60">
+        <v>5560822.986</v>
+      </c>
+      <c r="S60" t="s">
+        <v>60</v>
+      </c>
+      <c r="T60" t="s">
+        <v>61</v>
+      </c>
+      <c r="U60" t="s">
+        <v>62</v>
+      </c>
+      <c r="V60" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
